--- a/模擬テスト/模擬テスト回答.xlsx
+++ b/模擬テスト/模擬テスト回答.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="31_春_SG" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="30_秋_SG" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="36">
   <si>
     <t>回答</t>
   </si>
@@ -506,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,6 +1278,526 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:C51</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/模擬テスト/模擬テスト回答.xlsx
+++ b/模擬テスト/模擬テスト回答.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="31_春_SG" sheetId="1" r:id="rId1"/>
     <sheet name="30_秋_SG" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="30_春_SG" sheetId="5" r:id="rId3"/>
+    <sheet name="format" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="61">
   <si>
     <t>回答</t>
   </si>
@@ -129,17 +130,116 @@
   </si>
   <si>
     <t>問3</t>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>カ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ア</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>エ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ケ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>エオ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>キ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>問2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>エウオイ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>アエイ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>問3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>オ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>ウエ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,7 +247,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,15 +255,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,9 +332,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -285,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -320,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -497,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,18 +615,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C51"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="8" max="9" width="9.140625" style="9"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="2"/>
+    <col min="8" max="9" width="9.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -538,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -558,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -573,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -588,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -603,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -618,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -635,7 +743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -655,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -673,7 +781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -688,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -697,7 +805,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -718,7 +826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -736,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -754,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -771,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -791,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -806,7 +914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -826,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -844,7 +952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -861,7 +969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -876,7 +984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -887,7 +995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -905,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -920,7 +1028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -937,7 +1045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -955,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -973,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -991,7 +1099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1011,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1031,7 +1139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1046,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1064,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1079,7 +1187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1090,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1099,7 +1207,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1108,7 +1216,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1119,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1128,7 +1236,7 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1137,7 +1245,7 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1148,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1157,7 +1265,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1168,7 +1276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1177,7 +1285,7 @@
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1188,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1197,7 +1305,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1206,7 +1314,7 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1215,7 +1323,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -1224,7 +1332,7 @@
       </c>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1233,7 +1341,7 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -1242,7 +1350,7 @@
       </c>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -1253,6 +1361,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1260,13 +1369,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$4</xm:f>
+            <xm:f>format!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2:C51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$B$1:$B$10</xm:f>
+            <xm:f>format!$B$1:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
@@ -1280,13 +1389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1306,7 +1415,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1315,7 +1424,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1324,7 +1433,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1335,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1344,7 +1453,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1353,7 +1462,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1364,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1373,7 +1482,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1382,7 +1491,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1393,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1402,7 +1511,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1413,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1422,7 +1531,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1431,7 +1540,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1440,7 +1549,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1449,7 +1558,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1460,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1469,7 +1578,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1478,7 +1587,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1489,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1498,7 +1607,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1507,7 +1616,7 @@
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1516,7 +1625,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1527,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1536,7 +1645,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1547,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1556,7 +1665,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1567,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1576,7 +1685,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1585,7 +1694,7 @@
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1596,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1605,7 +1714,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1614,7 +1723,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1623,7 +1732,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1632,7 +1741,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1641,7 +1750,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1652,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1661,7 +1770,7 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1670,7 +1779,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1679,7 +1788,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1690,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1699,7 +1808,7 @@
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1708,7 +1817,7 @@
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1719,7 +1828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1728,7 +1837,7 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1737,7 +1846,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -1748,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1759,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -1770,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -1780,13 +1889,14 @@
       <c r="C51" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet1!$A$1:$A$4</xm:f>
+            <xm:f>format!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>B2:C51</xm:sqref>
         </x14:dataValidation>
@@ -1798,15 +1908,704 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="9" style="10"/>
+    <col min="8" max="8" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="F5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="F9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="F16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="F18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="F22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>format!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:C51</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1814,7 +2613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1822,7 +2621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +2629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1838,37 +2637,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>